--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1564049.955040789</v>
+        <v>1563372.134360517</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052313</v>
+        <v>313298.4515052319</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079833</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163212</v>
+        <v>32.88999934163198</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293221</v>
       </c>
       <c r="U11" t="n">
-        <v>28.39741371696034</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.0492982736046</v>
+        <v>46.57458928482646</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>70.88725088945461</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>38.46421129577583</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072806</v>
+        <v>20.56530653072794</v>
       </c>
       <c r="U12" t="n">
-        <v>122.0492982736046</v>
+        <v>42.84521610603974</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054763</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215697</v>
+        <v>72.32210790215686</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461599</v>
+        <v>22.93043876461587</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.001810459171</v>
+        <v>122.0492982736043</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420606</v>
+        <v>8.831062059420486</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871272</v>
+        <v>40.9716860187126</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199514</v>
+        <v>29.35851686199503</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013474</v>
+        <v>94.27381875013462</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959528</v>
+        <v>50.72653950959517</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448071</v>
+        <v>95.92823141448059</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338791</v>
+        <v>27.5369797333878</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.7587971393138</v>
+        <v>22.75879713931369</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079822</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.69738124260127</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293221</v>
       </c>
       <c r="U14" t="n">
         <v>55.76720738385725</v>
       </c>
       <c r="V14" t="n">
-        <v>5.52020567473528</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>96.94291355106392</v>
       </c>
       <c r="C15" t="n">
-        <v>117.6682934633412</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>46.26644524054751</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215686</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="X15" t="n">
         <v>22.93043876461587</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917088</v>
+        <v>122.0492982736043</v>
       </c>
     </row>
     <row r="16">
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420493</v>
+        <v>8.831062059420486</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871261</v>
+        <v>40.9716860187126</v>
       </c>
       <c r="T16" t="n">
         <v>29.35851686199503</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868125</v>
       </c>
       <c r="C17" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202675</v>
       </c>
       <c r="D17" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307521</v>
       </c>
       <c r="E17" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248408</v>
       </c>
       <c r="F17" t="n">
-        <v>82.31946603086135</v>
+        <v>82.31946603086141</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927438</v>
       </c>
       <c r="H17" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661482</v>
       </c>
       <c r="X17" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555405</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929782</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>55.56827688413864</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525225</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>107.5010219193907</v>
       </c>
       <c r="U18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868219</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C20" t="n">
         <v>29.3257137720268</v>
@@ -2093,7 +2093,7 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927404</v>
       </c>
       <c r="H20" t="n">
         <v>26.0317220423338</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>101.3644357981252</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="S21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>101.3644357981251</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868131</v>
+        <v>53.20745676868125</v>
       </c>
       <c r="C23" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202675</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307527</v>
+        <v>16.89237603307521</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248408</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086146</v>
+        <v>82.31946603086141</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927438</v>
       </c>
       <c r="H23" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233374</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661487</v>
+        <v>17.01668021661482</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555411</v>
+        <v>38.90293068555405</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929787</v>
+        <v>61.40578380929782</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2439,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="T24" t="n">
-        <v>122.0492982736046</v>
+        <v>101.3644357981251</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Y24" t="n">
-        <v>107.5010219193909</v>
+        <v>122.0492982736043</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1700831296929</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2883401330384</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D26" t="n">
         <v>124.8550023940869</v>
@@ -2567,13 +2567,13 @@
         <v>190.2820923918731</v>
       </c>
       <c r="G26" t="n">
-        <v>205.910285290286</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9943484033454</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751255</v>
+        <v>27.67892728751258</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834633</v>
+        <v>14.35531776834638</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646544</v>
+        <v>9.501751719646599</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057159</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9626263610116</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W26" t="n">
         <v>124.9793065776265</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8655570465657</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y26" t="n">
         <v>169.3684101703095</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>43.54731907844626</v>
+        <v>10.88660869404896</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275407</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726184</v>
+        <v>27.7317636672619</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887125</v>
       </c>
       <c r="X27" t="n">
-        <v>4.395757191330205</v>
+        <v>4.395757191330262</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46712888588522</v>
+        <v>10.46712888588527</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542694</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870936</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684896</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V28" t="n">
-        <v>32.1918579363095</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119493</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102129</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028019</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D29" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751258</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834644</v>
+        <v>14.35531776834637</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646657</v>
+        <v>9.501751719646592</v>
       </c>
       <c r="U29" t="n">
-        <v>37.2325258105717</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X29" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>47.05327154452355</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>113.5133232996855</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442391</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275419</v>
+        <v>24.31053453275413</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726196</v>
+        <v>27.7317636672619</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887131</v>
+        <v>53.78742632887125</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330262</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46712888588533</v>
+        <v>10.46712888588527</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542706</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870948</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684907</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630962</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119504</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102242</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028132</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F32" t="n">
         <v>190.2820923918732</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9102852902862</v>
+        <v>205.9102852902861</v>
       </c>
       <c r="H32" t="n">
         <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751264</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834642</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646649</v>
+        <v>9.50175171964662</v>
       </c>
       <c r="U32" t="n">
-        <v>37.2325258105717</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V32" t="n">
         <v>107.9626263610117</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9477822055827</v>
+        <v>2.030624957442361</v>
       </c>
       <c r="U33" t="n">
-        <v>232.8178788523942</v>
+        <v>24.31053453275416</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78742632887131</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.395757191330318</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588533</v>
+        <v>212.8378870842597</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43700444542705</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870947</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684907</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630962</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39354984119504</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102242</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028132</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.9940064659681</v>
+        <v>125.9940064659682</v>
       </c>
       <c r="C35" t="n">
-        <v>102.1122634693136</v>
+        <v>102.1122634693137</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036204</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E35" t="n">
-        <v>123.3856781497709</v>
+        <v>123.385678149771</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281482</v>
+        <v>155.1060157281483</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265612</v>
+        <v>170.7342086265613</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962057</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846737</v>
+        <v>2.056449146846859</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728677</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390165</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X35" t="n">
-        <v>111.6894803828409</v>
+        <v>111.689480382841</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065846</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>219.2391542308461</v>
+        <v>78.01869069774473</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312411</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747008</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.9940064659681</v>
+        <v>125.9940064659682</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1122634693136</v>
+        <v>102.1122634693137</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036204</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E38" t="n">
-        <v>123.3856781497709</v>
+        <v>123.385678149771</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281482</v>
+        <v>155.1060157281483</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265612</v>
+        <v>170.7342086265613</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962057</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846737</v>
+        <v>2.056449146846859</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728677</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390165</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X38" t="n">
-        <v>111.6894803828409</v>
+        <v>111.689480382841</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065846</v>
+        <v>134.1923335065848</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>103.7907901808761</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514635</v>
+        <v>18.61134966514646</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>111.0292697535348</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312411</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747008</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>140.9963546022471</v>
       </c>
       <c r="T42" t="n">
         <v>214.9477822055827</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>209.8177036778497</v>
+        <v>0.05283637974932276</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135867</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>143.9478756055981</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>41.97472252998006</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.136586121265626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0.05283637974932276</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7264763208812</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C11" t="n">
-        <v>179.7264763208812</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D11" t="n">
-        <v>179.7264763208812</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E11" t="n">
-        <v>179.7264763208812</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F11" t="n">
-        <v>179.7264763208812</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G11" t="n">
-        <v>56.44435685259375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H11" t="n">
-        <v>56.44435685259375</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L11" t="n">
-        <v>58.16119434887563</v>
+        <v>58.16119434887567</v>
       </c>
       <c r="M11" t="n">
-        <v>178.9899996397442</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N11" t="n">
-        <v>299.8188049306127</v>
+        <v>261.7172256428609</v>
       </c>
       <c r="O11" t="n">
-        <v>367.3683878035498</v>
+        <v>297.727736542041</v>
       </c>
       <c r="P11" t="n">
-        <v>488.1971930944183</v>
+        <v>418.5565418329093</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S11" t="n">
-        <v>454.974971537214</v>
+        <v>454.9749715372133</v>
       </c>
       <c r="T11" t="n">
-        <v>454.974971537214</v>
+        <v>426.6553419483928</v>
       </c>
       <c r="U11" t="n">
-        <v>426.2907152574561</v>
+        <v>426.6553419483928</v>
       </c>
       <c r="V11" t="n">
-        <v>303.0085957891687</v>
+        <v>379.61030226675</v>
       </c>
       <c r="W11" t="n">
-        <v>303.0085957891687</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="X11" t="n">
-        <v>303.0085957891687</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="Y11" t="n">
-        <v>303.0085957891687</v>
+        <v>133.0460633301756</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.61668254449021</v>
+        <v>81.36722758861018</v>
       </c>
       <c r="C12" t="n">
-        <v>48.61668254449021</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D12" t="n">
-        <v>48.61668254449021</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64509028167974</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2121322091851</v>
+        <v>161.8290993236936</v>
       </c>
       <c r="M12" t="n">
-        <v>288.0409375000536</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="N12" t="n">
-        <v>408.8697427909221</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="O12" t="n">
-        <v>408.8697427909221</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S12" t="n">
-        <v>364.9150736261308</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T12" t="n">
-        <v>344.1420367264055</v>
+        <v>467.4241561946922</v>
       </c>
       <c r="U12" t="n">
-        <v>220.8599172581181</v>
+        <v>424.1461601279854</v>
       </c>
       <c r="V12" t="n">
-        <v>174.1261341868579</v>
+        <v>300.8640406596982</v>
       </c>
       <c r="W12" t="n">
-        <v>101.0734999422548</v>
+        <v>227.8114064150953</v>
       </c>
       <c r="X12" t="n">
-        <v>77.91144058405688</v>
+        <v>204.6493470568974</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.61668254449021</v>
+        <v>81.36722758861018</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G13" t="n">
-        <v>9.763943861888364</v>
+        <v>35.1935927680226</v>
       </c>
       <c r="H13" t="n">
-        <v>9.763943861888364</v>
+        <v>35.1935927680226</v>
       </c>
       <c r="I13" t="n">
-        <v>39.14145792750013</v>
+        <v>35.1935927680226</v>
       </c>
       <c r="J13" t="n">
-        <v>39.14145792750013</v>
+        <v>35.1935927680226</v>
       </c>
       <c r="K13" t="n">
-        <v>39.14145792750013</v>
+        <v>35.1935927680226</v>
       </c>
       <c r="L13" t="n">
-        <v>142.2332337721119</v>
+        <v>156.0223980588909</v>
       </c>
       <c r="M13" t="n">
-        <v>142.2332337721119</v>
+        <v>263.0620390629797</v>
       </c>
       <c r="N13" t="n">
-        <v>263.0620390629804</v>
+        <v>383.890844353848</v>
       </c>
       <c r="O13" t="n">
-        <v>263.0620390629804</v>
+        <v>383.890844353848</v>
       </c>
       <c r="P13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.890844353848</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.890844353848</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473634</v>
+        <v>374.9705796473626</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143203</v>
+        <v>333.5850382143196</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769514</v>
+        <v>303.9299706769509</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313608</v>
+        <v>208.7038911313603</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337898</v>
+        <v>157.4649623337895</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481938</v>
+        <v>60.56775888481914</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099321</v>
+        <v>32.75262784099309</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.44435685259361</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="C14" t="n">
-        <v>56.44435685259361</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="D14" t="n">
-        <v>56.44435685259361</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="E14" t="n">
-        <v>56.44435685259361</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="F14" t="n">
-        <v>56.44435685259361</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="G14" t="n">
-        <v>56.44435685259361</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259361</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K14" t="n">
-        <v>9.763943861888364</v>
+        <v>130.5927491527566</v>
       </c>
       <c r="L14" t="n">
-        <v>130.5927491527569</v>
+        <v>251.4215544436249</v>
       </c>
       <c r="M14" t="n">
-        <v>213.3199751558737</v>
+        <v>372.2503597344932</v>
       </c>
       <c r="N14" t="n">
-        <v>334.1487804467423</v>
+        <v>449.4737627259981</v>
       </c>
       <c r="O14" t="n">
-        <v>454.9775857376108</v>
+        <v>485.4842736251783</v>
       </c>
       <c r="P14" t="n">
-        <v>488.0239675444182</v>
+        <v>488.0239675444173</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444182</v>
+        <v>488.0239675444173</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S14" t="n">
-        <v>488.1971930944183</v>
+        <v>464.2604443645171</v>
       </c>
       <c r="T14" t="n">
-        <v>488.1971930944183</v>
+        <v>435.9408147756967</v>
       </c>
       <c r="U14" t="n">
-        <v>431.8666805854716</v>
+        <v>379.61030226675</v>
       </c>
       <c r="V14" t="n">
-        <v>426.290715257456</v>
+        <v>379.61030226675</v>
       </c>
       <c r="W14" t="n">
-        <v>303.0085957891685</v>
+        <v>379.61030226675</v>
       </c>
       <c r="X14" t="n">
-        <v>179.7264763208811</v>
+        <v>379.61030226675</v>
       </c>
       <c r="Y14" t="n">
-        <v>56.44435685259361</v>
+        <v>379.61030226675</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.6208059460714</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K15" t="n">
-        <v>43.26205739618877</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L15" t="n">
-        <v>161.8290993236941</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M15" t="n">
-        <v>161.8290993236941</v>
+        <v>288.0409375000534</v>
       </c>
       <c r="N15" t="n">
-        <v>282.6579046145626</v>
+        <v>367.3683878035491</v>
       </c>
       <c r="O15" t="n">
-        <v>403.4867099054311</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R15" t="n">
-        <v>364.9150736261308</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="S15" t="n">
-        <v>364.9150736261308</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="T15" t="n">
-        <v>344.1420367264056</v>
+        <v>467.4241561946922</v>
       </c>
       <c r="U15" t="n">
-        <v>300.8640406596988</v>
+        <v>424.1461601279854</v>
       </c>
       <c r="V15" t="n">
-        <v>254.1302575884387</v>
+        <v>377.4123770567252</v>
       </c>
       <c r="W15" t="n">
-        <v>181.0776233438358</v>
+        <v>254.130257588438</v>
       </c>
       <c r="X15" t="n">
-        <v>157.915563985638</v>
+        <v>230.9681982302401</v>
       </c>
       <c r="Y15" t="n">
-        <v>128.6208059460714</v>
+        <v>107.6860787619529</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D16" t="n">
-        <v>43.06524822518309</v>
+        <v>58.47177103179094</v>
       </c>
       <c r="E16" t="n">
-        <v>43.06524822518309</v>
+        <v>58.47177103179094</v>
       </c>
       <c r="F16" t="n">
-        <v>43.06524822518309</v>
+        <v>113.3728085536349</v>
       </c>
       <c r="G16" t="n">
-        <v>68.49489713131734</v>
+        <v>113.3728085536349</v>
       </c>
       <c r="H16" t="n">
-        <v>68.49489713131734</v>
+        <v>113.3728085536349</v>
       </c>
       <c r="I16" t="n">
-        <v>68.49489713131734</v>
+        <v>113.3728085536349</v>
       </c>
       <c r="J16" t="n">
-        <v>142.233233772111</v>
+        <v>113.3728085536349</v>
       </c>
       <c r="K16" t="n">
-        <v>142.233233772111</v>
+        <v>234.2016138445032</v>
       </c>
       <c r="L16" t="n">
-        <v>263.0620390629795</v>
+        <v>355.0304191353715</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0620390629795</v>
+        <v>355.0304191353715</v>
       </c>
       <c r="N16" t="n">
-        <v>383.890844353848</v>
+        <v>355.0304191353715</v>
       </c>
       <c r="O16" t="n">
-        <v>383.890844353848</v>
+        <v>355.0304191353715</v>
       </c>
       <c r="P16" t="n">
-        <v>383.890844353848</v>
+        <v>355.0304191353715</v>
       </c>
       <c r="Q16" t="n">
         <v>383.890844353848</v>
@@ -5473,13 +5473,13 @@
         <v>157.4649623337895</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481916</v>
+        <v>60.56775888481914</v>
       </c>
       <c r="X16" t="n">
-        <v>32.7526278409931</v>
+        <v>32.75262784099309</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589146</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558579</v>
+        <v>286.3198544558573</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618425</v>
+        <v>269.2568483618419</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017575</v>
+        <v>218.146617601757</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130078</v>
+        <v>134.9956418130081</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151911</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I17" t="n">
-        <v>9.763943861888364</v>
+        <v>53.69130131193788</v>
       </c>
       <c r="J17" t="n">
-        <v>9.763943861888364</v>
+        <v>53.69130131193788</v>
       </c>
       <c r="K17" t="n">
-        <v>9.763943861888364</v>
+        <v>53.69130131193788</v>
       </c>
       <c r="L17" t="n">
-        <v>58.16119434887563</v>
+        <v>102.0885517989252</v>
       </c>
       <c r="M17" t="n">
-        <v>178.9899996397442</v>
+        <v>184.8157778020421</v>
       </c>
       <c r="N17" t="n">
-        <v>256.213402631249</v>
+        <v>262.039180793547</v>
       </c>
       <c r="O17" t="n">
-        <v>377.0422079221175</v>
+        <v>298.0496916927272</v>
       </c>
       <c r="P17" t="n">
-        <v>377.0422079221175</v>
+        <v>298.0496916927272</v>
       </c>
       <c r="Q17" t="n">
-        <v>377.0422079221175</v>
+        <v>298.0496916927272</v>
       </c>
       <c r="R17" t="n">
-        <v>377.0422079221175</v>
+        <v>298.0496916927272</v>
       </c>
       <c r="S17" t="n">
-        <v>377.0422079221175</v>
+        <v>390.7209271994659</v>
       </c>
       <c r="T17" t="n">
-        <v>474.5184738170689</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944174</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190497</v>
+        <v>471.0086272190489</v>
       </c>
       <c r="X17" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376813</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.686693385866</v>
+        <v>369.6866933858653</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>241.6329541578434</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C18" t="n">
-        <v>241.6329541578434</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D18" t="n">
-        <v>118.3508346895559</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E18" t="n">
-        <v>118.3508346895559</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F18" t="n">
-        <v>118.3508346895559</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G18" t="n">
-        <v>118.3508346895559</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H18" t="n">
-        <v>118.3508346895559</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22126207931488</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64509028167974</v>
+        <v>43.26205739618821</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2121322091851</v>
+        <v>161.8290993236936</v>
       </c>
       <c r="M18" t="n">
-        <v>288.0409375000536</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="N18" t="n">
-        <v>408.8697427909221</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="O18" t="n">
-        <v>488.1971930944183</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q18" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="R18" t="n">
-        <v>488.1971930944183</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="S18" t="n">
-        <v>488.1971930944183</v>
+        <v>364.9150736261302</v>
       </c>
       <c r="T18" t="n">
-        <v>488.1971930944183</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="U18" t="n">
-        <v>364.9150736261308</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="V18" t="n">
-        <v>364.9150736261308</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="W18" t="n">
-        <v>241.6329541578434</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="X18" t="n">
-        <v>241.6329541578434</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="Y18" t="n">
-        <v>241.6329541578434</v>
+        <v>133.0460633301756</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589144</v>
+        <v>315.9417875589143</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558571</v>
+        <v>286.319854455857</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618417</v>
+        <v>269.2568483618415</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017567</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130078</v>
+        <v>134.9956418130075</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L20" t="n">
-        <v>58.16119434887563</v>
+        <v>58.16119434887567</v>
       </c>
       <c r="M20" t="n">
-        <v>178.9899996397442</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N20" t="n">
-        <v>299.8188049306127</v>
+        <v>218.1118233434975</v>
       </c>
       <c r="O20" t="n">
-        <v>420.6476102214812</v>
+        <v>254.1223342426777</v>
       </c>
       <c r="P20" t="n">
-        <v>420.6476102214812</v>
+        <v>254.1223342426777</v>
       </c>
       <c r="Q20" t="n">
-        <v>420.6476102214812</v>
+        <v>374.9511395335459</v>
       </c>
       <c r="R20" t="n">
-        <v>420.6476102214812</v>
+        <v>374.9511395335459</v>
       </c>
       <c r="S20" t="n">
-        <v>420.6476102214812</v>
+        <v>374.9511395335459</v>
       </c>
       <c r="T20" t="n">
-        <v>488.1971930944183</v>
+        <v>418.1743935494817</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190498</v>
+        <v>471.0086272190488</v>
       </c>
       <c r="X20" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376811</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858661</v>
+        <v>369.6866933858651</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>235.434382318181</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C21" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D21" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E21" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F21" t="n">
-        <v>112.1522628498936</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167974</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L21" t="n">
-        <v>48.64509028167974</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="M21" t="n">
-        <v>161.8290993236941</v>
+        <v>169.473895572548</v>
       </c>
       <c r="N21" t="n">
-        <v>282.6579046145626</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="O21" t="n">
-        <v>403.4867099054311</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.998621254756</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R21" t="n">
-        <v>481.998621254756</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="S21" t="n">
-        <v>358.7165017864685</v>
+        <v>235.4343823181807</v>
       </c>
       <c r="T21" t="n">
-        <v>358.7165017864685</v>
+        <v>235.4343823181807</v>
       </c>
       <c r="U21" t="n">
-        <v>358.7165017864685</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="V21" t="n">
-        <v>358.7165017864685</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W21" t="n">
-        <v>358.7165017864685</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X21" t="n">
-        <v>235.434382318181</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y21" t="n">
-        <v>235.434382318181</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589152</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C23" t="n">
-        <v>286.319854455858</v>
+        <v>286.319854455857</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618425</v>
+        <v>269.2568483618418</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017576</v>
+        <v>218.1466176017566</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130085</v>
+        <v>134.9956418130077</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151847</v>
+        <v>36.05861259151839</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J23" t="n">
-        <v>16.56615397312393</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K23" t="n">
-        <v>16.56615397312393</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L23" t="n">
-        <v>137.3949592639925</v>
+        <v>58.16119434887567</v>
       </c>
       <c r="M23" t="n">
-        <v>220.1221852671093</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N23" t="n">
-        <v>297.3455882586142</v>
+        <v>261.7172256428609</v>
       </c>
       <c r="O23" t="n">
-        <v>418.1743935494827</v>
+        <v>297.727736542041</v>
       </c>
       <c r="P23" t="n">
-        <v>418.1743935494827</v>
+        <v>297.727736542041</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.1743935494827</v>
+        <v>418.5565418329093</v>
       </c>
       <c r="R23" t="n">
-        <v>418.1743935494827</v>
+        <v>418.5565418329093</v>
       </c>
       <c r="S23" t="n">
-        <v>418.1743935494827</v>
+        <v>418.5565418329093</v>
       </c>
       <c r="T23" t="n">
-        <v>418.1743935494827</v>
+        <v>418.5565418329093</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190498</v>
+        <v>471.0086272190488</v>
       </c>
       <c r="X23" t="n">
-        <v>431.712737637682</v>
+        <v>431.7127376376812</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.686693385866</v>
+        <v>369.6866933858652</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C24" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D24" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E24" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F24" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I24" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K24" t="n">
-        <v>9.763943861888366</v>
+        <v>48.64509028167976</v>
       </c>
       <c r="L24" t="n">
-        <v>41.00029403282548</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M24" t="n">
-        <v>161.829099323694</v>
+        <v>282.6579046145619</v>
       </c>
       <c r="N24" t="n">
-        <v>282.6579046145625</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054311</v>
+        <v>403.4867099054301</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944173</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="R24" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547551</v>
       </c>
       <c r="S24" t="n">
-        <v>488.1971930944183</v>
+        <v>358.7165017864679</v>
       </c>
       <c r="T24" t="n">
-        <v>364.9150736261308</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="U24" t="n">
-        <v>364.9150736261308</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="V24" t="n">
-        <v>364.9150736261308</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="W24" t="n">
-        <v>241.6329541578434</v>
+        <v>256.3281827984628</v>
       </c>
       <c r="X24" t="n">
-        <v>241.6329541578434</v>
+        <v>133.0460633301756</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.0460633301758</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888366</v>
+        <v>9.763943861888347</v>
       </c>
     </row>
     <row r="26">
@@ -6209,16 +6209,16 @@
         <v>759.7392152223576</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218568</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926922</v>
+        <v>407.371692792692</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307872</v>
+        <v>199.3815056307868</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074057</v>
+        <v>64.0336789607406</v>
       </c>
       <c r="I26" t="n">
         <v>36.07516654911174</v>
@@ -6233,16 +6233,16 @@
         <v>636.4155757908259</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696008</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q26" t="n">
         <v>1785.235767148034</v>
@@ -6260,13 +6260,13 @@
         <v>1742.051665537844</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.998507597428</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W26" t="n">
         <v>1506.756783781644</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.40773625986</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.328534067629</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>240.4900738201972</v>
+        <v>47.07174098754503</v>
       </c>
       <c r="C27" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D27" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E27" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F27" t="n">
         <v>36.07516654911174</v>
@@ -6306,49 +6306,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890312</v>
+        <v>74.95631296890315</v>
       </c>
       <c r="L27" t="n">
-        <v>193.5233548964084</v>
+        <v>193.5233548964085</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6401645971881</v>
+        <v>376.6401645971882</v>
       </c>
       <c r="N27" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="Q27" t="n">
-        <v>794.5886092341625</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R27" t="n">
-        <v>794.5886092341625</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="S27" t="n">
-        <v>794.5886092341625</v>
+        <v>601.1702764015106</v>
       </c>
       <c r="T27" t="n">
-        <v>577.4696373093315</v>
+        <v>384.0513044766795</v>
       </c>
       <c r="U27" t="n">
-        <v>552.9135418217011</v>
+        <v>144.4273733848669</v>
       </c>
       <c r="V27" t="n">
-        <v>524.9016593295174</v>
+        <v>116.4154908926832</v>
       </c>
       <c r="W27" t="n">
-        <v>255.5030900598088</v>
+        <v>62.08475722715668</v>
       </c>
       <c r="X27" t="n">
-        <v>251.0629312806873</v>
+        <v>57.6445984480352</v>
       </c>
       <c r="Y27" t="n">
-        <v>240.4900738201972</v>
+        <v>47.07174098754503</v>
       </c>
     </row>
     <row r="28">
@@ -6361,70 +6361,70 @@
         <v>36.07516654911174</v>
       </c>
       <c r="C28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K28" t="n">
-        <v>82.07054306251811</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L28" t="n">
-        <v>261.7366808640801</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M28" t="n">
-        <v>261.7366808640801</v>
+        <v>222.6454168959492</v>
       </c>
       <c r="N28" t="n">
-        <v>270.228498281051</v>
+        <v>222.6454168959492</v>
       </c>
       <c r="O28" t="n">
-        <v>270.228498281051</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="P28" t="n">
-        <v>270.228498281051</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.228498281051</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="R28" t="n">
-        <v>270.228498281051</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270844</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687921</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U28" t="n">
-        <v>160.127511502278</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837835</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388966</v>
+        <v>49.43518041388977</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914004</v>
+        <v>40.34194994914009</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07516654911174</v>
@@ -6440,40 +6440,40 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.855379256789</v>
+        <v>885.8553792567886</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223576</v>
+        <v>759.7392152223574</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218568</v>
+        <v>599.5758265218566</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926919</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307867</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074067</v>
+        <v>64.03367896074064</v>
       </c>
       <c r="I29" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.750973479216</v>
+        <v>171.7509734792163</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281794</v>
+        <v>377.2303396281798</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908256</v>
+        <v>636.4155757908261</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696016</v>
+        <v>929.9307874696019</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O29" t="n">
         <v>1464.740672711604</v>
@@ -6488,16 +6488,16 @@
         <v>1803.758327455587</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.258006477459</v>
+        <v>1789.258006477458</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467714</v>
       </c>
       <c r="U29" t="n">
         <v>1742.051665537844</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W29" t="n">
         <v>1506.756783781644</v>
@@ -6506,7 +6506,7 @@
         <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>461.7564812640411</v>
+        <v>83.60372366479208</v>
       </c>
       <c r="C30" t="n">
-        <v>461.7564812640411</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D30" t="n">
-        <v>300.9763650250728</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E30" t="n">
-        <v>300.9763650250728</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3164425001379</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G30" t="n">
         <v>36.07516654911174</v>
@@ -6543,49 +6543,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890312</v>
+        <v>74.95631296890315</v>
       </c>
       <c r="L30" t="n">
-        <v>193.5233548964084</v>
+        <v>193.5233548964085</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6401645971881</v>
+        <v>376.6401645971882</v>
       </c>
       <c r="N30" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7871810738247</v>
+        <v>601.1702764015106</v>
       </c>
       <c r="T30" t="n">
-        <v>798.7360447531759</v>
+        <v>384.0513044766795</v>
       </c>
       <c r="U30" t="n">
-        <v>774.1799492655454</v>
+        <v>359.4952089890491</v>
       </c>
       <c r="V30" t="n">
-        <v>746.1680667733616</v>
+        <v>331.4833264968653</v>
       </c>
       <c r="W30" t="n">
-        <v>691.837333107835</v>
+        <v>277.1525928313388</v>
       </c>
       <c r="X30" t="n">
-        <v>472.3293387245313</v>
+        <v>272.7124340522174</v>
       </c>
       <c r="Y30" t="n">
-        <v>461.7564812640411</v>
+        <v>262.1395765917272</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07516654911174</v>
+        <v>82.07054306251806</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07516654911174</v>
+        <v>227.0524740396262</v>
       </c>
       <c r="L31" t="n">
-        <v>184.9863110441004</v>
+        <v>227.0524740396262</v>
       </c>
       <c r="M31" t="n">
-        <v>184.9863110441004</v>
+        <v>227.0524740396262</v>
       </c>
       <c r="N31" t="n">
-        <v>184.9863110441004</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="O31" t="n">
-        <v>184.9863110441004</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="P31" t="n">
-        <v>184.9863110441004</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810518</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810518</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270851</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687927</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022785</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837839</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W31" t="n">
-        <v>49.4351804138899</v>
+        <v>49.43518041388977</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914015</v>
+        <v>40.34194994914009</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07516654911174</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.53047030026</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.855379256787</v>
+        <v>885.8553792567884</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223556</v>
+        <v>759.7392152223571</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218548</v>
+        <v>599.5758265218562</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926898</v>
+        <v>407.3716927926914</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307858</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074069</v>
+        <v>64.03367896074066</v>
       </c>
       <c r="I32" t="n">
         <v>36.07516654911174</v>
@@ -6701,16 +6701,16 @@
         <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696015</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O32" t="n">
         <v>1464.740672711604</v>
@@ -6725,25 +6725,25 @@
         <v>1803.758327455587</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.258006477458</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T32" t="n">
         <v>1779.660277467714</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.051665537843</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.998507597427</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781643</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.407736259859</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.328534067627</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="33">
@@ -6798,28 +6798,28 @@
         <v>800.787181073825</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R33" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="S33" t="n">
-        <v>800.787181073825</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="T33" t="n">
-        <v>583.6682091489939</v>
+        <v>792.5374729135139</v>
       </c>
       <c r="U33" t="n">
-        <v>348.498634550616</v>
+        <v>767.9813774258834</v>
       </c>
       <c r="V33" t="n">
-        <v>105.4189164542501</v>
+        <v>524.9016593295174</v>
       </c>
       <c r="W33" t="n">
-        <v>51.0881827887235</v>
+        <v>255.5030900598088</v>
       </c>
       <c r="X33" t="n">
-        <v>46.64802400960197</v>
+        <v>251.0629312806873</v>
       </c>
       <c r="Y33" t="n">
         <v>36.07516654911174</v>
@@ -6841,64 +6841,64 @@
         <v>36.07516654911174</v>
       </c>
       <c r="E34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L34" t="n">
-        <v>75.06626805783202</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M34" t="n">
-        <v>75.06626805783202</v>
+        <v>222.6454168959491</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2284982810518</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2284982810518</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2284982810518</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2284982810518</v>
+        <v>260.6219149623251</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810518</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270851</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6316904687927</v>
+        <v>236.6316904687925</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022785</v>
+        <v>160.1275115022783</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837839</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W34" t="n">
-        <v>49.4351804138899</v>
+        <v>49.43518041388983</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914015</v>
+        <v>40.34194994914012</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07516654911174</v>
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102303</v>
+        <v>773.6196706102301</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361759</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711637</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400819</v>
+        <v>455.2591985400816</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803362</v>
+        <v>298.5864553803358</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878502</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I35" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J35" t="n">
-        <v>26.31122268722336</v>
+        <v>56.86686252849236</v>
       </c>
       <c r="K35" t="n">
-        <v>26.31122268722336</v>
+        <v>297.1705445745434</v>
       </c>
       <c r="L35" t="n">
-        <v>320.3207747469572</v>
+        <v>345.5677950615307</v>
       </c>
       <c r="M35" t="n">
-        <v>632.3381594257119</v>
+        <v>671.1691758159201</v>
       </c>
       <c r="N35" t="n">
-        <v>955.1738639899634</v>
+        <v>748.392578807425</v>
       </c>
       <c r="O35" t="n">
-        <v>1236.79667646189</v>
+        <v>1030.015391279352</v>
       </c>
       <c r="P35" t="n">
-        <v>1236.79667646189</v>
+        <v>1262.214258156529</v>
       </c>
       <c r="Q35" t="n">
-        <v>1236.79667646189</v>
+        <v>1262.214258156529</v>
       </c>
       <c r="R35" t="n">
-        <v>1290.143552666531</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666531</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.561134361168</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000717</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.96214562972</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W35" t="n">
         <v>1149.251812383355</v>
@@ -6980,7 +6980,7 @@
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081779</v>
+        <v>900.8863438081778</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>376.1512132370156</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701477</v>
+        <v>65.19236910701478</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345202</v>
@@ -7035,31 +7035,31 @@
         <v>791.0232372119365</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="R36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="S36" t="n">
-        <v>597.6049043792843</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="T36" t="n">
-        <v>597.6049043792843</v>
+        <v>567.7056934474432</v>
       </c>
       <c r="U36" t="n">
-        <v>597.6049043792843</v>
+        <v>567.7056934474432</v>
       </c>
       <c r="V36" t="n">
-        <v>597.6049043792843</v>
+        <v>324.6259753510773</v>
       </c>
       <c r="W36" t="n">
-        <v>376.1512132370156</v>
+        <v>245.819217070527</v>
       </c>
       <c r="X36" t="n">
-        <v>376.1512132370156</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y36" t="n">
-        <v>376.1512132370156</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="L37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="M37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847932</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847932</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847932</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847932</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847932</v>
+        <v>97.31624188867869</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847932</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847932</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="U37" t="n">
-        <v>68.95513498769819</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="V37" t="n">
-        <v>68.95513498769819</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102298</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361758</v>
+        <v>670.4759701361763</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711635</v>
+        <v>579.891196671164</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400818</v>
+        <v>455.2591985400822</v>
       </c>
       <c r="F38" t="n">
-        <v>298.586455380336</v>
+        <v>298.5864553803364</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878502</v>
+        <v>126.1276587878504</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I38" t="n">
-        <v>26.31122268722336</v>
+        <v>33.73340056967346</v>
       </c>
       <c r="J38" t="n">
-        <v>26.31122268722336</v>
+        <v>33.73340056967346</v>
       </c>
       <c r="K38" t="n">
-        <v>104.9051192064356</v>
+        <v>274.0370826157245</v>
       </c>
       <c r="L38" t="n">
-        <v>153.3023696934229</v>
+        <v>568.0466346754583</v>
       </c>
       <c r="M38" t="n">
-        <v>478.9037504478119</v>
+        <v>766.1533612388172</v>
       </c>
       <c r="N38" t="n">
-        <v>801.7394550120634</v>
+        <v>843.3767642303221</v>
       </c>
       <c r="O38" t="n">
-        <v>1083.36226748399</v>
+        <v>879.3872751295023</v>
       </c>
       <c r="P38" t="n">
-        <v>1315.561134361168</v>
+        <v>1111.58614200668</v>
       </c>
       <c r="Q38" t="n">
-        <v>1315.561134361168</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="R38" t="n">
-        <v>1315.561134361168</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="S38" t="n">
-        <v>1315.561134361168</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.561134361168</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000717</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.96214562972</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383355</v>
+        <v>1149.251812383356</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.43415543099</v>
+        <v>1036.434155430991</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081775</v>
+        <v>900.8863438081781</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>546.5832010511567</v>
+        <v>199.8744265658089</v>
       </c>
       <c r="C39" t="n">
-        <v>357.1709267841204</v>
+        <v>199.8744265658089</v>
       </c>
       <c r="D39" t="n">
-        <v>357.1709267841204</v>
+        <v>199.8744265658089</v>
       </c>
       <c r="E39" t="n">
-        <v>183.6077229055349</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F39" t="n">
-        <v>183.6077229055349</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G39" t="n">
-        <v>78.76854090464987</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H39" t="n">
-        <v>78.76854090464987</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I39" t="n">
-        <v>78.76854090464987</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701476</v>
+        <v>65.19236910701478</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7594110345201</v>
+        <v>183.7594110345202</v>
       </c>
       <c r="M39" t="n">
         <v>366.8762207352999</v>
@@ -7281,22 +7281,22 @@
         <v>791.0232372119365</v>
       </c>
       <c r="T39" t="n">
-        <v>791.0232372119365</v>
+        <v>573.9042652871054</v>
       </c>
       <c r="U39" t="n">
-        <v>791.0232372119365</v>
+        <v>573.9042652871054</v>
       </c>
       <c r="V39" t="n">
-        <v>791.0232372119365</v>
+        <v>330.8245471907395</v>
       </c>
       <c r="W39" t="n">
-        <v>772.223894115829</v>
+        <v>312.025204094632</v>
       </c>
       <c r="X39" t="n">
-        <v>772.223894115829</v>
+        <v>312.025204094632</v>
       </c>
       <c r="Y39" t="n">
-        <v>546.5832010511567</v>
+        <v>199.8744265658089</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G40" t="n">
-        <v>97.31624188867832</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H40" t="n">
-        <v>97.31624188867832</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I40" t="n">
-        <v>97.31624188867832</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="K40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="L40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="M40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="N40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="O40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="P40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="R40" t="n">
-        <v>97.31624188867832</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847932</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847932</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="U40" t="n">
-        <v>68.95513498769819</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="V40" t="n">
-        <v>68.95513498769819</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="X40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.31122268722336</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="41">
@@ -7415,25 +7415,25 @@
         <v>261.0473092568137</v>
       </c>
       <c r="L41" t="n">
-        <v>547.6346834340975</v>
+        <v>309.4445597438011</v>
       </c>
       <c r="M41" t="n">
-        <v>630.3619094372144</v>
+        <v>630.3619094372143</v>
       </c>
       <c r="N41" t="n">
-        <v>945.7754361190157</v>
+        <v>707.5853124287192</v>
       </c>
       <c r="O41" t="n">
         <v>981.7859470181959</v>
       </c>
       <c r="P41" t="n">
-        <v>1206.562636012923</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q41" t="n">
-        <v>1357.085317483901</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.294850848453</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S41" t="n">
         <v>1390.294850848453</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C42" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D42" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E42" t="n">
         <v>28.1658050932128</v>
@@ -7515,25 +7515,25 @@
         <v>657.1572765725974</v>
       </c>
       <c r="S42" t="n">
-        <v>657.1572765725974</v>
+        <v>514.7367163683074</v>
       </c>
       <c r="T42" t="n">
-        <v>440.0383046477664</v>
+        <v>297.6177444434763</v>
       </c>
       <c r="U42" t="n">
-        <v>440.0383046477664</v>
+        <v>297.6177444434763</v>
       </c>
       <c r="V42" t="n">
-        <v>228.101230225696</v>
+        <v>297.5643743629215</v>
       </c>
       <c r="W42" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X42" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.7290089717984</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="43">
@@ -7579,13 +7579,13 @@
         <v>28.1658050932128</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q43" t="n">
         <v>131.4867779132288</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629608</v>
+        <v>820.9115219629613</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1949433311165</v>
+        <v>710.194943331117</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194414</v>
+        <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019055</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7646,31 +7646,31 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J44" t="n">
-        <v>28.1658050932128</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>56.06671893106943</v>
+        <v>424.1252542015556</v>
       </c>
       <c r="L44" t="n">
-        <v>342.6540931083532</v>
+        <v>472.5225046885429</v>
       </c>
       <c r="M44" t="n">
-        <v>425.3813191114701</v>
+        <v>793.4398543819564</v>
       </c>
       <c r="N44" t="n">
-        <v>740.7948457932714</v>
+        <v>1108.853381063758</v>
       </c>
       <c r="O44" t="n">
-        <v>1014.995480382748</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="P44" t="n">
-        <v>1239.772169377475</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.294850848453</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.294850848453</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S44" t="n">
         <v>1390.294850848453</v>
@@ -7691,7 +7691,7 @@
         <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186987</v>
+        <v>955.7510733186991</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>283.80194917585</v>
+        <v>178.407081044239</v>
       </c>
       <c r="C45" t="n">
-        <v>283.80194917585</v>
+        <v>178.407081044239</v>
       </c>
       <c r="D45" t="n">
-        <v>123.0218329368818</v>
+        <v>178.407081044239</v>
       </c>
       <c r="E45" t="n">
-        <v>123.0218329368818</v>
+        <v>178.407081044239</v>
       </c>
       <c r="F45" t="n">
-        <v>80.6231233106393</v>
+        <v>178.407081044239</v>
       </c>
       <c r="G45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J45" t="n">
         <v>28.1658050932128</v>
@@ -7746,31 +7746,31 @@
         <v>792.8778196179261</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179261</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179261</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8778196179261</v>
+        <v>593.2609149456117</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8778196179261</v>
+        <v>593.2609149456117</v>
       </c>
       <c r="U45" t="n">
-        <v>553.2538885261135</v>
+        <v>593.2609149456117</v>
       </c>
       <c r="V45" t="n">
-        <v>553.2005184455587</v>
+        <v>593.2075448650569</v>
       </c>
       <c r="W45" t="n">
-        <v>283.80194917585</v>
+        <v>323.8089755953482</v>
       </c>
       <c r="X45" t="n">
-        <v>283.80194917585</v>
+        <v>323.8089755953482</v>
       </c>
       <c r="Y45" t="n">
-        <v>283.80194917585</v>
+        <v>323.8089755953482</v>
       </c>
     </row>
     <row r="46">
@@ -7819,16 +7819,16 @@
         <v>28.1658050932128</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4867779132288</v>
+        <v>126.2972742995641</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4867779132288</v>
+        <v>126.2972742995641</v>
       </c>
       <c r="S46" t="n">
         <v>131.4867779132288</v>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>234.8671368015996</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383725</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N12" t="n">
-        <v>224.1952211518979</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O12" t="n">
-        <v>120.8255334486103</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P12" t="n">
-        <v>200.9264671236378</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>165.9360666291096</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>116.810406864768</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518979</v>
+        <v>182.2746605585919</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222148</v>
+        <v>242.8748317222145</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433387</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>165.936066629109</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383725</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N18" t="n">
-        <v>224.1952211518979</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O18" t="n">
-        <v>200.9542711289094</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P18" t="n">
-        <v>120.7977294433387</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9486,13 +9486,13 @@
         <v>120.5398549409796</v>
       </c>
       <c r="M21" t="n">
-        <v>231.1376887253885</v>
+        <v>238.8597051383722</v>
       </c>
       <c r="N21" t="n">
-        <v>224.1952211518979</v>
+        <v>216.4732047389133</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222148</v>
+        <v>242.8748317222145</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,19 +9717,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>152.091723800512</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383725</v>
+        <v>233.4222981833303</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518979</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222148</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.65546642937414</v>
+        <v>57.65546642937426</v>
       </c>
       <c r="C11" t="n">
-        <v>155.8230217063242</v>
+        <v>155.8230217063241</v>
       </c>
       <c r="D11" t="n">
-        <v>143.3896839673727</v>
+        <v>143.3896839673725</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867815</v>
+        <v>177.0964363867814</v>
       </c>
       <c r="F11" t="n">
-        <v>208.8167739651589</v>
+        <v>208.8167739651587</v>
       </c>
       <c r="G11" t="n">
-        <v>102.3956685899672</v>
+        <v>224.4449668635717</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766312</v>
+        <v>152.5290299766311</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.2136088607982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293233</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>27.36979366689702</v>
+        <v>55.76720738385725</v>
       </c>
       <c r="V11" t="n">
-        <v>4.448009660692833</v>
+        <v>79.92271864947084</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509123</v>
+        <v>21.46468987730782</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198515</v>
+        <v>165.4002386198514</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435953</v>
+        <v>65.85379346999082</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029786</v>
+        <v>57.65546642937426</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063241</v>
+        <v>33.77372343271975</v>
       </c>
       <c r="D14" t="n">
         <v>143.3896839673725</v>
@@ -23507,13 +23507,13 @@
         <v>208.8167739651587</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4449668635717</v>
+        <v>102.3956685899674</v>
       </c>
       <c r="H14" t="n">
         <v>152.5290299766311</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.2136088607982</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163199</v>
+        <v>9.192618099030714</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293221</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>120.977102259562</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="W14" t="n">
-        <v>21.46468987730759</v>
+        <v>143.5139881509122</v>
       </c>
       <c r="X14" t="n">
-        <v>43.35094034624683</v>
+        <v>165.4002386198514</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.85379346999059</v>
+        <v>187.9030917435952</v>
       </c>
     </row>
     <row r="15">
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-7.545946385921896e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.061223419108174e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799206.7831645588</v>
+        <v>799206.7831645587</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>705545.5961411675</v>
+      </c>
+      <c r="C2" t="n">
         <v>705545.5961411677</v>
-      </c>
-      <c r="C2" t="n">
-        <v>705545.5961411679</v>
       </c>
       <c r="D2" t="n">
         <v>705545.5961411676</v>
       </c>
       <c r="E2" t="n">
-        <v>607992.0712163831</v>
+        <v>607992.0712163833</v>
       </c>
       <c r="F2" t="n">
-        <v>607992.0712163831</v>
+        <v>607992.071216383</v>
       </c>
       <c r="G2" t="n">
+        <v>706974.839086829</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706974.839086829</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706974.8390868289</v>
+      </c>
+      <c r="J2" t="n">
         <v>706974.8390868288</v>
       </c>
-      <c r="H2" t="n">
-        <v>706974.8390868288</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>706974.8390868283</v>
+      </c>
+      <c r="L2" t="n">
         <v>706974.8390868285</v>
       </c>
-      <c r="J2" t="n">
-        <v>706974.8390868283</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706974.8390868284</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>706974.8390868286</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706974.8390868291</v>
+      </c>
+      <c r="O2" t="n">
         <v>706974.8390868289</v>
       </c>
-      <c r="M2" t="n">
-        <v>706974.8390868293</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706974.839086829</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706974.8390868288</v>
-      </c>
       <c r="P2" t="n">
-        <v>706974.8390868289</v>
+        <v>706974.8390868285</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845675</v>
+        <v>275373.0470845676</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097997</v>
+        <v>28140.86133097985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240162</v>
+        <v>68716.99883240163</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,19 +26433,19 @@
         <v>420238.0338746422</v>
       </c>
       <c r="H4" t="n">
-        <v>420238.0338746423</v>
+        <v>420238.0338746422</v>
       </c>
       <c r="I4" t="n">
-        <v>420238.0338746423</v>
+        <v>420238.0338746422</v>
       </c>
       <c r="J4" t="n">
+        <v>419094.7882741041</v>
+      </c>
+      <c r="K4" t="n">
         <v>419094.7882741042</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>419094.7882741041</v>
-      </c>
-      <c r="L4" t="n">
-        <v>419094.788274104</v>
       </c>
       <c r="M4" t="n">
         <v>418553.2323741539</v>
@@ -26479,31 +26479,31 @@
         <v>26025.86226334828</v>
       </c>
       <c r="F5" t="n">
-        <v>26025.8622633483</v>
+        <v>26025.86226334828</v>
       </c>
       <c r="G5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="I5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407672</v>
       </c>
       <c r="J5" t="n">
         <v>47580.58365082261</v>
       </c>
       <c r="K5" t="n">
-        <v>47580.5836508226</v>
+        <v>47580.58365082261</v>
       </c>
       <c r="L5" t="n">
         <v>47580.5836508226</v>
       </c>
       <c r="M5" t="n">
-        <v>43117.20390483013</v>
+        <v>43117.20390483014</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483012</v>
+        <v>43117.20390483014</v>
       </c>
       <c r="O5" t="n">
         <v>43896.40868247331</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215241.3450653724</v>
+        <v>215236.878681167</v>
       </c>
       <c r="C6" t="n">
-        <v>215241.3450653726</v>
+        <v>215236.8786811672</v>
       </c>
       <c r="D6" t="n">
-        <v>215241.3450653723</v>
+        <v>215236.8786811671</v>
       </c>
       <c r="E6" t="n">
-        <v>-43141.36197759157</v>
+        <v>-43450.68312718665</v>
       </c>
       <c r="F6" t="n">
-        <v>232231.6851069758</v>
+        <v>231922.3639573807</v>
       </c>
       <c r="G6" t="n">
-        <v>148878.594420672</v>
+        <v>148878.5944206722</v>
       </c>
       <c r="H6" t="n">
-        <v>250076.4407681098</v>
+        <v>250076.4407681101</v>
       </c>
       <c r="I6" t="n">
-        <v>250076.4407681095</v>
+        <v>250076.4407681099</v>
       </c>
       <c r="J6" t="n">
-        <v>85111.41835112867</v>
+        <v>85111.41835112919</v>
       </c>
       <c r="K6" t="n">
-        <v>240299.4671619017</v>
+        <v>240299.4671619015</v>
       </c>
       <c r="L6" t="n">
-        <v>139101.6208144644</v>
+        <v>139101.620814464</v>
       </c>
       <c r="M6" t="n">
-        <v>217163.5414768653</v>
+        <v>217163.5414768647</v>
       </c>
       <c r="N6" t="n">
-        <v>245304.4028078449</v>
+        <v>245304.402807845</v>
       </c>
       <c r="O6" t="n">
-        <v>175708.1058440697</v>
+        <v>175708.1058440698</v>
       </c>
       <c r="P6" t="n">
-        <v>244425.1046764714</v>
+        <v>244425.104676471</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="F2" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="G2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H2" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="I2" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="J2" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K2" t="n">
         <v>212.9171572481403</v>
@@ -26716,10 +26716,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="J4" t="n">
         <v>450.9395818638966</v>
@@ -26820,10 +26820,10 @@
         <v>450.9395818638966</v>
       </c>
       <c r="M4" t="n">
-        <v>328.890283590292</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N4" t="n">
-        <v>328.890283590292</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>126.4973079342973</v>
@@ -26938,13 +26938,13 @@
         <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372496</v>
+        <v>35.17607666372481</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763068</v>
+        <v>78.9226999376308</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902921</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486806</v>
+        <v>23.18228007486772</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>126.4973079342973</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87088762177228</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946157056</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>38.48644372500166</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44.04586090844816</v>
+        <v>44.04586090844788</v>
       </c>
       <c r="O11" t="n">
-        <v>31.85764845834036</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.5982222085229</v>
+        <v>135.5982222085226</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55297193870601</v>
+        <v>158.8970641220474</v>
       </c>
       <c r="R11" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>116.6309006349113</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>133.3633605440239</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R12" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
-        <v>69.43485123072108</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="U12" t="n">
-        <v>115.1783935072899</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748546</v>
+        <v>118.5996226417979</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748546</v>
+        <v>101.3349878604213</v>
       </c>
     </row>
     <row r="13">
@@ -28260,61 +28260,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H13" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
-        <v>194.3824756748546</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J13" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L13" t="n">
-        <v>135.5693168875846</v>
+        <v>153.4855082474396</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46235891800154</v>
+        <v>132.5832084170812</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8328896397047</v>
+        <v>137.8328896397044</v>
       </c>
       <c r="O13" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9457505507724</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q13" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748547</v>
       </c>
     </row>
     <row r="14">
@@ -28348,28 +28348,28 @@
         <v>194.3824756748547</v>
       </c>
       <c r="J14" t="n">
-        <v>75.87088762177228</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K14" t="n">
-        <v>5.362241946157056</v>
+        <v>127.4115402197613</v>
       </c>
       <c r="L14" t="n">
-        <v>73.16318667058712</v>
+        <v>73.16318667058684</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>38.48644372500138</v>
       </c>
       <c r="N14" t="n">
-        <v>44.04586090844816</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>85.67504484008927</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>46.92910757815815</v>
+        <v>16.11427132808898</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R14" t="n">
         <v>194.3824756748547</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>79.80758084660181</v>
       </c>
       <c r="C15" t="n">
-        <v>69.8498580610247</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,10 +28448,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R15" t="n">
-        <v>12.31403934127067</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S15" t="n">
         <v>191.4841495043256</v>
@@ -28466,13 +28466,13 @@
         <v>194.3824756748547</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748547</v>
+        <v>144.6552853034073</v>
       </c>
       <c r="X15" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748547</v>
+        <v>101.3349878604213</v>
       </c>
     </row>
     <row r="16">
@@ -28488,46 +28488,46 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.8203314257559</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3824756748547</v>
+        <v>168.6959616282545</v>
       </c>
       <c r="H16" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J16" t="n">
-        <v>194.3824756748547</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176849</v>
+        <v>188.5200605953728</v>
       </c>
       <c r="L16" t="n">
-        <v>153.4855082474399</v>
+        <v>153.4855082474396</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N16" t="n">
-        <v>137.8328896397047</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O16" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8139378168763</v>
+        <v>155.965882482004</v>
       </c>
       <c r="R16" t="n">
         <v>194.3824756748547</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="C17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="D17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="E17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="F17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="G17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5960845356529</v>
+        <v>284.9671526670161</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177228</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946157056</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>38.48644372500166</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>85.67504484008927</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491829</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R17" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2724750164867</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="T17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="U17" t="n">
-        <v>263.9665712176508</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="W17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="X17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>54.7011961240614</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>37.12301680297398</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28661,10 +28661,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I18" t="n">
-        <v>51.59746208958246</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127087</v>
       </c>
       <c r="S18" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9477822055827</v>
+        <v>107.446760286192</v>
       </c>
       <c r="U18" t="n">
-        <v>115.1783935072899</v>
+        <v>115.1783935072901</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>144.655285303407</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28740,28 +28740,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I19" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J19" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O19" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8139378168763</v>
@@ -28822,28 +28822,28 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177228</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946157056</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>38.48644372500166</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44.04586090844816</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>85.67504484008927</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491829</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870601</v>
+        <v>210.6022702123103</v>
       </c>
       <c r="R20" t="n">
         <v>194.2075003718244</v>
@@ -28852,10 +28852,10 @@
         <v>227.2724750164867</v>
       </c>
       <c r="T20" t="n">
-        <v>290.6508108596426</v>
+        <v>266.0787615091362</v>
       </c>
       <c r="U20" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>65.46885325076136</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28892,7 +28892,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>47.37442739339075</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H21" t="n">
         <v>125.6800758778345</v>
@@ -28901,7 +28901,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127087</v>
       </c>
       <c r="S21" t="n">
-        <v>69.43485123072108</v>
+        <v>69.43485123072131</v>
       </c>
       <c r="T21" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276917808945</v>
+        <v>135.8632559827694</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>118.5996226417979</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>95.26361616586604</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28977,28 +28977,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I22" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J22" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O22" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8139378168763</v>
@@ -29035,52 +29035,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="C23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="D23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="E23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="F23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="G23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="H23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="I23" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J23" t="n">
-        <v>82.74180692605063</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946157056</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L23" t="n">
-        <v>73.16318667058712</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.04586090844788</v>
       </c>
       <c r="O23" t="n">
-        <v>85.6750448400893</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491829</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870601</v>
+        <v>210.6022702123103</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718244</v>
@@ -29092,19 +29092,19 @@
         <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>320.879783609152</v>
+        <v>320.4937752420534</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="W23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="X23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.879783609152</v>
+        <v>320.8797836091521</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>37.12301680297396</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29138,7 +29138,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265651</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072131</v>
       </c>
       <c r="T24" t="n">
-        <v>92.89848393197811</v>
+        <v>113.5833464074576</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276917808945</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>144.655285303407</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586627</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.8832642146348</v>
+        <v>101.3349878604213</v>
       </c>
     </row>
     <row r="25">
@@ -29214,28 +29214,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I25" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J25" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O25" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8139378168763</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9171572481394</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481395</v>
       </c>
       <c r="R26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>143.9708324459197</v>
+        <v>176.631542830317</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388631915159</v>
@@ -29375,7 +29375,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9171572481404</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="28">
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9171572481404</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29451,28 +29451,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L28" t="n">
-        <v>212.9171572481404</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46235891800154</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N28" t="n">
-        <v>24.36118471657573</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O28" t="n">
-        <v>36.7985460771767</v>
+        <v>84.86226464798698</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8139378168763</v>
@@ -29481,25 +29481,25 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S28" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="T28" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="W28" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X28" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9171572481404</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="29">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>140.4648799798424</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>45.3101158202428</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H30" t="n">
         <v>125.6800758778345</v>
@@ -29612,7 +29612,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,16 +29633,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265651</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>212.9171572481403</v>
@@ -29654,7 +29654,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y30" t="n">
         <v>212.9171572481403</v>
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29688,31 +29688,31 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J31" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176849</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L31" t="n">
-        <v>181.8515074435209</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78359136610014</v>
+        <v>59.39573706450939</v>
       </c>
       <c r="O31" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.9171572481403</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R31" t="n">
         <v>203.2135377342752</v>
@@ -29785,13 +29785,13 @@
         <v>212.9171572481403</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481395</v>
       </c>
       <c r="P32" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9171572481397</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R32" t="n">
         <v>212.9171572481403</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3633376148752</v>
@@ -29879,22 +29879,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U33" t="n">
-        <v>4.409812928500315</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9171572481403</v>
+        <v>10.54639904976588</v>
       </c>
     </row>
     <row r="34">
@@ -29913,7 +29913,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>181.0610922311344</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29937,10 +29937,10 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46235891800152</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N34" t="n">
-        <v>212.9171572481403</v>
+        <v>54.1436904230456</v>
       </c>
       <c r="O34" t="n">
         <v>36.79854607717668</v>
@@ -29952,7 +29952,7 @@
         <v>126.8139378168763</v>
       </c>
       <c r="R34" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S34" t="n">
         <v>212.9171572481403</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I35" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J35" t="n">
-        <v>75.87088762177225</v>
+        <v>106.7351702897207</v>
       </c>
       <c r="K35" t="n">
-        <v>5.36224194615702</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L35" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>231.6062208844825</v>
+        <v>245.3274290416894</v>
       </c>
       <c r="N35" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="P35" t="n">
-        <v>13.54892393491825</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Q35" t="n">
         <v>88.55297193870598</v>
       </c>
       <c r="R35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="S35" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T35" t="n">
-        <v>248.0932339118652</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388631915159</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>47.46542934616551</v>
+        <v>188.6858928792669</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30177,10 +30177,10 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N37" t="n">
-        <v>100.2449052020293</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717668</v>
+        <v>108.5207876948083</v>
       </c>
       <c r="P37" t="n">
         <v>57.89645227716784</v>
@@ -30192,19 +30192,19 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3541616935673</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="T37" t="n">
         <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5960845356529</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="J38" t="n">
         <v>75.87088762177225</v>
       </c>
       <c r="K38" t="n">
-        <v>84.75001620798758</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="M38" t="n">
-        <v>245.327429041689</v>
+        <v>116.5449500608504</v>
       </c>
       <c r="N38" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>248.0932339118652</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.55297193870598</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="R38" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2724750164867</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4189089677869</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>44.94807301063977</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H39" t="n">
         <v>125.6800758778345</v>
@@ -30323,7 +30323,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30353,22 +30353,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>112.3550163804908</v>
       </c>
     </row>
     <row r="40">
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>240.4182032458858</v>
+        <v>168.6959616282545</v>
       </c>
       <c r="H40" t="n">
         <v>165.7816030517371</v>
@@ -30402,7 +30402,7 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8993073508208</v>
+        <v>204.3606211867502</v>
       </c>
       <c r="K40" t="n">
         <v>66.47076232176849</v>
@@ -30429,19 +30429,19 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S40" t="n">
-        <v>248.0932339118652</v>
+        <v>235.3541616935673</v>
       </c>
       <c r="T40" t="n">
         <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118652</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30487,28 +30487,28 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>240.5960845356529</v>
+        <v>214.4288740491755</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="R41" t="n">
-        <v>227.7524835683418</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T41" t="n">
         <v>240.5960845356529</v>
@@ -30545,7 +30545,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4841495043256</v>
+        <v>50.48779490207852</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,10 +30596,10 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>30.83121723755258</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30651,7 +30651,7 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N43" t="n">
-        <v>120.1482103762173</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O43" t="n">
         <v>36.79854607717668</v>
@@ -30660,7 +30660,7 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8139378168763</v>
+        <v>231.1785568269934</v>
       </c>
       <c r="R43" t="n">
         <v>203.2135377342752</v>
@@ -30718,34 +30718,34 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J44" t="n">
-        <v>75.87088762177225</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
-        <v>33.54498319651724</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5960845356529</v>
+        <v>36.15475320037633</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5960845356529</v>
+        <v>13.54892393491824</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="R44" t="n">
-        <v>194.2075003718244</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
         <v>240.5960845356529</v>
@@ -30773,22 +30773,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>32.80261879206762</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>116.8487165899483</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.6800758778345</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265626</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
         <v>240.5960845356529</v>
@@ -30891,19 +30891,19 @@
         <v>15.78359136610011</v>
       </c>
       <c r="O46" t="n">
-        <v>141.1631650872938</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P46" t="n">
         <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>225.9366339849078</v>
       </c>
       <c r="R46" t="n">
         <v>203.2135377342752</v>
       </c>
       <c r="S46" t="n">
-        <v>235.3541616935673</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T46" t="n">
         <v>223.7409925368498</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H11" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N11" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P11" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R11" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H12" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J12" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M12" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P12" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T13" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H14" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N14" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P14" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R14" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H15" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J15" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M15" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P15" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P16" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T16" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H17" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N17" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P17" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R17" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H18" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J18" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M18" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P18" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P19" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T19" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H20" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N20" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P20" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R20" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H21" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J21" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M21" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P21" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P22" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T22" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H23" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N23" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P23" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R23" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H24" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J24" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M24" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P24" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P25" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T25" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H26" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N26" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P26" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R26" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H27" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J27" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M27" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P27" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T28" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H29" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N29" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P29" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R29" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H30" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J30" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M30" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P30" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P31" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T31" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301744</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M11" t="n">
-        <v>122.0492982736046</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N11" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O11" t="n">
-        <v>68.23190189185566</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P11" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>70.34409218334144</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.27388527251654</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L12" t="n">
-        <v>119.764688815662</v>
+        <v>114.32728186062</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>80.12873768029915</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,13 +35556,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.68651404660026</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.67425663193107</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>104.1331069137492</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>108.1208494990796</v>
       </c>
       <c r="N13" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="L14" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="M14" t="n">
-        <v>83.5628545486029</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N14" t="n">
-        <v>122.0492982736046</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O14" t="n">
-        <v>122.0492982736046</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P14" t="n">
-        <v>33.38018364323986</v>
+        <v>2.565347393170735</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030303474</v>
+        <v>0.1749753030303687</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>33.83647831747516</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736046</v>
+        <v>80.12873768029864</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,16 +35784,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.63768117504518</v>
+        <v>49.19982542414402</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.45559345640808</v>
       </c>
       <c r="G16" t="n">
-        <v>25.68651404660026</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.48316832403395</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="L16" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.15194466512773</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>44.37106813136317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301744</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M17" t="n">
-        <v>122.0492982736046</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N17" t="n">
-        <v>78.0034373651564</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O17" t="n">
-        <v>122.0492982736046</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,13 +35908,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>93.60730859266535</v>
       </c>
       <c r="T17" t="n">
-        <v>98.46087464136507</v>
+        <v>98.46087464136512</v>
       </c>
       <c r="U17" t="n">
-        <v>13.81688815893878</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.27388527251654</v>
+        <v>33.83647831747461</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O18" t="n">
-        <v>80.12873768029915</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301744</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M20" t="n">
-        <v>122.0492982736046</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N20" t="n">
-        <v>122.0492982736046</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O20" t="n">
-        <v>122.0492982736046</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>68.23190189185566</v>
+        <v>43.65985254134926</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.27388527251654</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>114.3272818606206</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736046</v>
+        <v>114.32728186062</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="P21" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.870919304278349</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>122.0492982736046</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M23" t="n">
-        <v>83.5628545486029</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N23" t="n">
-        <v>78.0034373651564</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O23" t="n">
-        <v>122.0492982736046</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.73010055044004</v>
+        <v>70.34409218334144</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L24" t="n">
-        <v>31.55186885953244</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736046</v>
+        <v>116.6118913185623</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736043</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967423</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N26" t="n">
         <v>290.9205946132968</v>
@@ -36613,10 +36613,10 @@
         <v>199.3682333132221</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3641853094344</v>
+        <v>124.3641853094335</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631601</v>
+        <v>18.70965687631598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.27388527251654</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L27" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M27" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N27" t="n">
         <v>208.4679356963294</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45997627616805</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.4809472743051</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.4547983301388</v>
       </c>
       <c r="N28" t="n">
-        <v>8.577593350475588</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>48.06371857081029</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5549153019832</v>
+        <v>207.5549153019833</v>
       </c>
       <c r="L29" t="n">
-        <v>261.8032688511577</v>
+        <v>261.8032688511578</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4800117967432</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9205946132967</v>
+        <v>290.9205946132968</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P29" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.7096568763159</v>
+        <v>18.70965687631599</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.27388527251654</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L30" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M30" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N30" t="n">
         <v>208.4679356963294</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45997627616799</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36990,16 +36990,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4463949263719</v>
       </c>
       <c r="L31" t="n">
-        <v>150.4152974696856</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>43.61214569840927</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.10321943126399</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K32" t="n">
         <v>207.5549153019833</v>
@@ -37075,22 +37075,22 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4800117967432</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N32" t="n">
         <v>290.9205946132968</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816548</v>
       </c>
       <c r="P32" t="n">
         <v>199.368233313222</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3641853094338</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631592</v>
+        <v>18.70965687631595</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>39.38495101890938</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>188.4547983301388</v>
       </c>
       <c r="N34" t="n">
-        <v>197.1335658820402</v>
+        <v>38.36009905694548</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.703619513865094</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>30.86428266794846</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9793455148827</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M35" t="n">
-        <v>315.1690754330855</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N35" t="n">
-        <v>326.0966712770217</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O35" t="n">
-        <v>284.4674873453806</v>
+        <v>284.4674873453805</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>234.5443099769469</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004087</v>
+        <v>53.88573354004076</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.6743249440783</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>84.46131383592918</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>71.72224161763161</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.73907221829779</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.497149376212192</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>79.38777426183056</v>
+        <v>242.7309919657081</v>
       </c>
       <c r="L38" t="n">
-        <v>48.88611160301748</v>
+        <v>296.9793455148826</v>
       </c>
       <c r="M38" t="n">
-        <v>328.890283590292</v>
+        <v>200.1078046094534</v>
       </c>
       <c r="N38" t="n">
-        <v>326.0966712770217</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O38" t="n">
-        <v>284.4674873453806</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P38" t="n">
-        <v>234.544309976947</v>
+        <v>234.5443099769469</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>159.5402619731591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.82075889537841</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.67432494407819</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>71.72224161763127</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>84.4613138359294</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>12.7390722182979</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37783,28 +37783,28 @@
         <v>235.2338425894959</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4821961386704</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M41" t="n">
-        <v>83.56285454860294</v>
+        <v>324.1589390842558</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008093</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O41" t="n">
-        <v>36.37425343351535</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0471606007347</v>
+        <v>200.8799501142572</v>
       </c>
       <c r="Q41" t="n">
         <v>152.0431125969469</v>
       </c>
       <c r="R41" t="n">
-        <v>33.54498319651745</v>
+        <v>46.38858416382855</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T41" t="n">
         <v>18.17717556786598</v>
@@ -37947,16 +37947,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>104.3646190101172</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>28.18274125036023</v>
+        <v>235.2338425894959</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4821961386704</v>
+        <v>48.88611160301751</v>
       </c>
       <c r="M44" t="n">
-        <v>83.56285454860297</v>
+        <v>324.1589390842559</v>
       </c>
       <c r="N44" t="n">
         <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9703379691683</v>
+        <v>72.5290066338917</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0471606007347</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38858416382856</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T44" t="n">
         <v>18.17717556786598</v>
@@ -38187,19 +38187,19 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>104.3646190101172</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>99.12269616803157</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.241922842085583</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
